--- a/OTHERS/DOC/問題一覧.xlsx
+++ b/OTHERS/DOC/問題一覧.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="9"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="6" sheetId="6" r:id="rId1"/>
@@ -14,9 +14,14 @@
     <sheet name="18" sheetId="19" r:id="rId5"/>
     <sheet name="19" sheetId="18" r:id="rId6"/>
     <sheet name="24" sheetId="24" r:id="rId7"/>
-    <sheet name="29" sheetId="29" r:id="rId8"/>
+    <sheet name="29" sheetId="29" state="hidden" r:id="rId8"/>
     <sheet name="30" sheetId="30" r:id="rId9"/>
-    <sheet name="31" sheetId="31" r:id="rId10"/>
+    <sheet name="31" sheetId="31" state="hidden" r:id="rId10"/>
+    <sheet name="32" sheetId="32" r:id="rId11"/>
+    <sheet name="33" sheetId="33" r:id="rId12"/>
+    <sheet name="34" sheetId="34" r:id="rId13"/>
+    <sheet name="35" sheetId="35" r:id="rId14"/>
+    <sheet name="36" sheetId="36" r:id="rId15"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1064,6 +1069,4710 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="342900"/>
+          <a:ext cx="18288000" cy="9829800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形标注 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13401675" y="3000375"/>
+          <a:ext cx="1666875" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 55752"/>
+            <a:gd name="adj2" fmla="val 113391"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>插入一个项目，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="zh-CN" sz="1100"/>
+            <a:t>仕入先</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>572135</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形标注 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7430135" y="1095375"/>
+          <a:ext cx="3437890" cy="1543050"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 38326"/>
+            <a:gd name="adj2" fmla="val 94115"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>插入一个检索条件，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="zh-CN" sz="1100"/>
+            <a:t>仕入先</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>（下拉列表）</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>01.恩氏製衣</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>02.両匹狼</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>03.星峰製衣</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>99.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>その他</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>选</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>99</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的时候，除了</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>01</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>02</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>03</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>以外的（包括空白的）都显示出来</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="342900"/>
+          <a:ext cx="18288000" cy="9829800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矩形标注 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5867400" y="3629025"/>
+          <a:ext cx="7858125" cy="2095500"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 48416"/>
+            <a:gd name="adj2" fmla="val -72606"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>加一个按钮</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>IV</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ファイル】</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>点击按钮，输出文件，模板用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>INVOICE_LIST.xlsx</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5153025" y="5638800"/>
+          <a:ext cx="14639925" cy="7953375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直接箭头连接符 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8848725" y="4438650"/>
+          <a:ext cx="1362075" cy="2876550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="矩形标注 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6419850" y="10896600"/>
+          <a:ext cx="2352675" cy="1133475"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 63387"/>
+            <a:gd name="adj2" fmla="val 82661"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>只输出黄色部分</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>其他部分不变</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>457835</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635" y="8220075"/>
+          <a:ext cx="18288000" cy="9829800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="矩形标注 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13639800" y="11563350"/>
+          <a:ext cx="2352675" cy="1133475"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -82361"/>
+            <a:gd name="adj2" fmla="val -45070"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，这里输出追迹番号</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18154650" y="11830050"/>
+          <a:ext cx="18288000" cy="9829800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直接箭头连接符 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15271750" y="11855450"/>
+          <a:ext cx="5921375" cy="7613650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="矩形标注 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6565900" y="14579600"/>
+          <a:ext cx="2352675" cy="1133475"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 101848"/>
+            <a:gd name="adj2" fmla="val -61876"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，这里以商品管理番号为单位，输出仕入数量</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>J</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>列是商品管理番号，未来会变成白色字，让人不容易发现</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>多余的行删除掉</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>353060</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>648335</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="矩形标注 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="353060" y="16478250"/>
+          <a:ext cx="2352675" cy="1133475"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 124925"/>
+            <a:gd name="adj2" fmla="val -107254"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>目前模板还没有做好，商品还不全，未来会追加完整。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="342900"/>
+          <a:ext cx="18288000" cy="9829800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形标注 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13134975" y="3028950"/>
+          <a:ext cx="2324100" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 63770"/>
+            <a:gd name="adj2" fmla="val 62521"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>目前纳品功能有个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>bug</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>不知道什么原因，纳品途中数量会出现负数，我追踪了很久，也没有发现是哪个操作导致的负数</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457835</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>229235</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3886835" y="5095875"/>
+          <a:ext cx="18288000" cy="9829800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>237490</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85090</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形标注 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8001000" y="4991100"/>
+          <a:ext cx="5266690" cy="1951990"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 63770"/>
+            <a:gd name="adj2" fmla="val 62521"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>下面画红框的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>个功能，处理结束后，检索一下全表的纳品途中在库，如果有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&lt;0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的数据，</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>在后台</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>debug</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>log</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="zh-CN" sz="1100"/>
+            <a:t>納品</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>NO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>XXXXXXXXXXX</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　操作：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>XXXX</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="ja-JP" sz="1100"/>
+            <a:t>画面上的按钮名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>最后前台</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>alert</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>一句话，</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>【数据出现异常，不要进行任何操作，等待处理！】</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12573000" y="7296150"/>
+          <a:ext cx="1085850" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矩形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18373725" y="7296150"/>
+          <a:ext cx="3448050" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="171450"/>
+          <a:ext cx="18288000" cy="9829800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>486410</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10773410" y="3619500"/>
+          <a:ext cx="2018665" cy="6343650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>161290</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形标注 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5181600" y="5286375"/>
+          <a:ext cx="5266690" cy="4970145"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 67747"/>
+            <a:gd name="adj2" fmla="val -47011"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>这两列的设计有问题，需要改一下，根据商品分类来确定</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>販売手数料率</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>雨靴</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　⇒　販売価格</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> &lt;= 7500 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>的话，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>12.00%</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>           </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>販売価格</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>7500 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>的话，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>12% + 6%</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>レインコート   靴下   膝当て   スキー靴下   パジャマ   バスタオル</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>　⇒　販売価格</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> &lt;= </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>30</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>00 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>的话，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>12.00%</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>           </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>販売価格</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>3000 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>的话，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>12% + </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>%</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Amazonデバイス用アクセサリ　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>现在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>没有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>未来</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>会</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>　⇒　【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>45</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>.00%</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>その他</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>　⇒　【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>.00%</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>sql</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>里面</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>无法</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>写</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>这么复杂</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>计算</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>逻辑</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>有两个方案可以处理，仅供参考</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>方案</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>里</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>做一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>function</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>function</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>里面</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>定义</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>上面</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>这些</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>计算</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>工程，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>sql</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>里</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>调用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>这个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>function</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>方案</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>放在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>前台</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>处理</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>js</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>遍历</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>每一行</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>计算</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>好</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>值</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>填充</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>表格</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直接箭头连接符 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1600200" y="3124200"/>
+          <a:ext cx="6381750" cy="2133600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>227965</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形标注 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11420475" y="7353300"/>
+          <a:ext cx="5266690" cy="3580130"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -27019"/>
+            <a:gd name="adj2" fmla="val -91433"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>販売手数料見積額</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>雨靴</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>　⇒　販売価格</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> &lt;= 7500 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>的话，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>販売価格</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>*12</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>%</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>           </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>販売価格</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>7500 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>的话，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>7500</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>*1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>2% + (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>販売価格</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>-7500)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>*6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>%</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>レインコート   靴下   膝当て   スキー靴下   パジャマ   バスタオル</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>　⇒　販売価格</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> &lt;= 3000 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>的话，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>販売価格</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>*12</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>%</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>           </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>販売価格</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>&gt; 30</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>00 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>的话，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>30</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>00</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>*1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>2% + (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>販売価格</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>-3000)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>*8</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>%</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Amazonデバイス用アクセサリ　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>现在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>没有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>未来</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>会</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>　⇒　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>販売価格</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>*45</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>%</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>その他</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>　⇒　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>販売価格</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>.00%</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>以上最小值是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>30</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>（计算完小于</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>30</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>的话，按</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>30</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>算）</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>出现小数点一律往上进位</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>（例：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 100.1  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⇒　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>101</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="514350"/>
+          <a:ext cx="18288000" cy="9829800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>628015</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>94615</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形标注 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4581525" y="971550"/>
+          <a:ext cx="5647690" cy="2552065"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -18506"/>
+            <a:gd name="adj2" fmla="val 94289"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>目前机能开发的差不多了，但是偶尔还有不足的地方，需要动手去查。</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>把所有功能都做出来不太显示。</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>所以想做下面这个功能</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>做一个输出</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Excel</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的功能</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>把每一个检索画面的检索结果输出到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>excel</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>里下载出来。这样功能不足的情况下我可以用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>excel</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>里面的功能再进行过滤和筛选。</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>应该能做成通用的，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>js</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>对画面的表格进行遍历，包括标题，做成数组，传递到后台，生成</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>excel</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>每个画面增加按钮比较麻烦，可以考虑监听按键，比如按下</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Ctrl+O </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的时候，自动触发这个动作。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -5319,7 +10028,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5337,12 +10048,103 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
+    <tabColor theme="0" tint="-0.5"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.5"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AG44" sqref="AG44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="J68" sqref="J68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5372,7 +10174,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5444,7 +10248,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
@@ -5459,11 +10263,11 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
-    <tabColor rgb="FFFFC000"/>
+    <tabColor theme="0" tint="-0.5"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
